--- a/Final/Data/matrix.xlsx
+++ b/Final/Data/matrix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>id Cliente</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Tiempo Atencion Cliente</t>
+          <t>id Server</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -465,6 +465,1206 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E11" t="n">
+        <v>8</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="E17" t="n">
+        <v>5</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="E18" t="n">
+        <v>6</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="E20" t="n">
+        <v>7</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="C21" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="E21" t="n">
+        <v>8</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="C22" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="E22" t="n">
+        <v>9</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="C23" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="C24" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E24" t="n">
+        <v>6</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="C25" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="E25" t="n">
+        <v>7</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="C26" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="E26" t="n">
+        <v>8</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="C27" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="E27" t="n">
+        <v>9</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="C28" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E28" t="n">
+        <v>10</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="C29" t="n">
+        <v>5</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="C30" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E30" t="n">
+        <v>5</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="C31" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="E31" t="n">
+        <v>6</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="C32" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="E32" t="n">
+        <v>7</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="C33" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E33" t="n">
+        <v>8</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="C34" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="E34" t="n">
+        <v>9</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="C35" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E35" t="n">
+        <v>10</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>6.26</v>
+      </c>
+      <c r="C36" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="C37" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="C38" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="E38" t="n">
+        <v>3</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E39" t="n">
+        <v>4</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="C40" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>10</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="C41" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E41" t="n">
+        <v>4</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="C42" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E42" t="n">
+        <v>3</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="C43" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E43" t="n">
+        <v>4</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>7.74</v>
+      </c>
+      <c r="C44" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E44" t="n">
+        <v>6</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="C45" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E45" t="n">
+        <v>7</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="C46" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E46" t="n">
+        <v>10</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="C47" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E47" t="n">
+        <v>4</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="C48" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="E48" t="n">
+        <v>5</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>8</v>
+      </c>
+      <c r="C49" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E49" t="n">
+        <v>6</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="C50" t="n">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>9</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="C51" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="E51" t="n">
+        <v>10</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>8.48</v>
+      </c>
+      <c r="C52" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="C53" t="n">
+        <v>9.18</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="C54" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E54" t="n">
+        <v>3</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="C55" t="n">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E55" t="n">
+        <v>4</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="C56" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E56" t="n">
+        <v>5</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C57" t="n">
+        <v>11.62</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E57" t="n">
+        <v>8</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>10.61</v>
+      </c>
+      <c r="C58" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E58" t="n">
+        <v>9</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>10.05</v>
+      </c>
+      <c r="C59" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E59" t="n">
+        <v>10</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="C60" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="C61" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Final/Data/matrix.xlsx
+++ b/Final/Data/matrix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,30 +459,22 @@
           <t>id Server</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Tiempo Ocio Server</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.66</v>
+        <v>18.82</v>
       </c>
       <c r="C2" t="n">
-        <v>0.67</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.08</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -490,19 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.46</v>
+        <v>23.94</v>
       </c>
       <c r="C3" t="n">
-        <v>0.68</v>
+        <v>24</v>
       </c>
       <c r="D3" t="n">
-        <v>0.22</v>
+        <v>0.06</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.02</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -510,19 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.43</v>
+        <v>28.4</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7</v>
+        <v>29</v>
       </c>
       <c r="D4" t="n">
-        <v>0.27</v>
+        <v>0.6</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.02</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -530,19 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.84</v>
+        <v>46.86</v>
       </c>
       <c r="C5" t="n">
-        <v>0.85</v>
+        <v>47</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.04</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -550,19 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1.15</v>
+        <v>48.23</v>
       </c>
       <c r="C6" t="n">
-        <v>1.17</v>
+        <v>49</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01</v>
+        <v>0.77</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -570,19 +550,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9</v>
+        <v>63.02</v>
       </c>
       <c r="C7" t="n">
-        <v>1.18</v>
+        <v>64</v>
       </c>
       <c r="D7" t="n">
-        <v>0.28</v>
+        <v>0.98</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.04</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -590,19 +567,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>1.19</v>
+        <v>83.66</v>
       </c>
       <c r="C8" t="n">
-        <v>1.2</v>
+        <v>84</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01</v>
+        <v>0.34</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.04</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -610,19 +584,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>2.4</v>
+        <v>112.29</v>
       </c>
       <c r="C9" t="n">
-        <v>2.42</v>
+        <v>113</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01</v>
+        <v>0.71</v>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.01</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -630,19 +601,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>1.61</v>
+        <v>97.29000000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>2.43</v>
+        <v>114</v>
       </c>
       <c r="D10" t="n">
-        <v>0.82</v>
+        <v>16.71</v>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.01</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -650,19 +618,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>2.23</v>
+        <v>111.87</v>
       </c>
       <c r="C11" t="n">
-        <v>2.45</v>
+        <v>115</v>
       </c>
       <c r="D11" t="n">
-        <v>0.22</v>
+        <v>3.13</v>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.04</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -670,19 +635,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>2.75</v>
+        <v>109.91</v>
       </c>
       <c r="C12" t="n">
-        <v>2.75</v>
+        <v>116</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>6.09</v>
       </c>
       <c r="E12" t="n">
-        <v>6</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.03</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -690,19 +652,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>3.5</v>
+        <v>132.98</v>
       </c>
       <c r="C13" t="n">
-        <v>3.5</v>
+        <v>133</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -710,19 +669,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>2.42</v>
+        <v>126.33</v>
       </c>
       <c r="C14" t="n">
-        <v>3.52</v>
+        <v>134</v>
       </c>
       <c r="D14" t="n">
-        <v>1.09</v>
+        <v>7.67</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.05</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -730,19 +686,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>2.43</v>
+        <v>151.51</v>
       </c>
       <c r="C15" t="n">
-        <v>3.53</v>
+        <v>152</v>
       </c>
       <c r="D15" t="n">
-        <v>1.11</v>
+        <v>0.49</v>
       </c>
       <c r="E15" t="n">
         <v>3</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.05</v>
       </c>
     </row>
     <row r="16">
@@ -750,19 +703,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>2.58</v>
+        <v>212.86</v>
       </c>
       <c r="C16" t="n">
-        <v>3.55</v>
+        <v>213</v>
       </c>
       <c r="D16" t="n">
-        <v>0.97</v>
+        <v>0.14</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.02</v>
       </c>
     </row>
     <row r="17">
@@ -770,19 +720,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>2.9</v>
+        <v>173.49</v>
       </c>
       <c r="C17" t="n">
-        <v>3.57</v>
+        <v>214</v>
       </c>
       <c r="D17" t="n">
-        <v>0.67</v>
+        <v>40.51</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.02</v>
       </c>
     </row>
     <row r="18">
@@ -790,19 +737,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>2.87</v>
+        <v>168.61</v>
       </c>
       <c r="C18" t="n">
-        <v>3.58</v>
+        <v>215</v>
       </c>
       <c r="D18" t="n">
-        <v>0.72</v>
+        <v>46.39</v>
       </c>
       <c r="E18" t="n">
         <v>6</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.05</v>
       </c>
     </row>
     <row r="19">
@@ -810,19 +754,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>4.4</v>
+        <v>176.75</v>
       </c>
       <c r="C19" t="n">
-        <v>4.42</v>
+        <v>216</v>
       </c>
       <c r="D19" t="n">
-        <v>0.01</v>
+        <v>39.25</v>
       </c>
       <c r="E19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.08</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -830,19 +771,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>3.06</v>
+        <v>233.62</v>
       </c>
       <c r="C20" t="n">
-        <v>4.43</v>
+        <v>234</v>
       </c>
       <c r="D20" t="n">
-        <v>1.38</v>
+        <v>0.38</v>
       </c>
       <c r="E20" t="n">
-        <v>7</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.03</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -850,19 +788,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>3.23</v>
+        <v>222.08</v>
       </c>
       <c r="C21" t="n">
-        <v>4.45</v>
+        <v>235</v>
       </c>
       <c r="D21" t="n">
-        <v>1.22</v>
+        <v>12.92</v>
       </c>
       <c r="E21" t="n">
-        <v>8</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.06</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -870,19 +805,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>3.39</v>
+        <v>213.17</v>
       </c>
       <c r="C22" t="n">
-        <v>4.47</v>
+        <v>236</v>
       </c>
       <c r="D22" t="n">
-        <v>1.08</v>
+        <v>22.83</v>
       </c>
       <c r="E22" t="n">
-        <v>9</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.02</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -890,19 +822,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>4.88</v>
+        <v>241.47</v>
       </c>
       <c r="C23" t="n">
-        <v>4.9</v>
+        <v>242</v>
       </c>
       <c r="D23" t="n">
-        <v>0.02</v>
+        <v>0.53</v>
       </c>
       <c r="E23" t="n">
-        <v>5</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.06</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -910,19 +839,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>3.93</v>
+        <v>234.91</v>
       </c>
       <c r="C24" t="n">
-        <v>4.92</v>
+        <v>243</v>
       </c>
       <c r="D24" t="n">
-        <v>0.99</v>
+        <v>8.09</v>
       </c>
       <c r="E24" t="n">
-        <v>6</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -930,19 +856,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>4.12</v>
+        <v>262.28</v>
       </c>
       <c r="C25" t="n">
-        <v>4.93</v>
+        <v>263</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="E25" t="n">
-        <v>7</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -950,19 +873,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>4.18</v>
+        <v>270.9</v>
       </c>
       <c r="C26" t="n">
-        <v>4.95</v>
+        <v>271</v>
       </c>
       <c r="D26" t="n">
-        <v>0.77</v>
+        <v>0.1</v>
       </c>
       <c r="E26" t="n">
-        <v>8</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.08</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -970,19 +890,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>4.28</v>
+        <v>281.21</v>
       </c>
       <c r="C27" t="n">
-        <v>4.97</v>
+        <v>282</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.79</v>
       </c>
       <c r="E27" t="n">
-        <v>9</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.03</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -990,19 +907,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>4.41</v>
+        <v>331.57</v>
       </c>
       <c r="C28" t="n">
-        <v>4.98</v>
+        <v>332</v>
       </c>
       <c r="D28" t="n">
-        <v>0.57</v>
+        <v>0.43</v>
       </c>
       <c r="E28" t="n">
-        <v>10</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.01</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -1010,19 +924,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>4.62</v>
+        <v>369.06</v>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>370</v>
       </c>
       <c r="D29" t="n">
-        <v>0.38</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E29" t="n">
         <v>1</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.27</v>
       </c>
     </row>
     <row r="30">
@@ -1030,19 +941,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>6.22</v>
+        <v>337.88</v>
       </c>
       <c r="C30" t="n">
-        <v>6.23</v>
+        <v>371</v>
       </c>
       <c r="D30" t="n">
-        <v>0.01</v>
+        <v>33.12</v>
       </c>
       <c r="E30" t="n">
-        <v>5</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -1050,19 +958,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>4.94</v>
+        <v>298.28</v>
       </c>
       <c r="C31" t="n">
-        <v>6.25</v>
+        <v>372</v>
       </c>
       <c r="D31" t="n">
-        <v>1.31</v>
+        <v>73.72</v>
       </c>
       <c r="E31" t="n">
-        <v>6</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -1070,19 +975,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>5.75</v>
+        <v>311.82</v>
       </c>
       <c r="C32" t="n">
-        <v>6.27</v>
+        <v>373</v>
       </c>
       <c r="D32" t="n">
-        <v>0.52</v>
+        <v>61.18</v>
       </c>
       <c r="E32" t="n">
-        <v>7</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
@@ -1090,19 +992,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>5.3</v>
+        <v>337.78</v>
       </c>
       <c r="C33" t="n">
-        <v>6.28</v>
+        <v>374</v>
       </c>
       <c r="D33" t="n">
-        <v>0.99</v>
+        <v>36.22</v>
       </c>
       <c r="E33" t="n">
-        <v>8</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
@@ -1110,19 +1009,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>5.39</v>
+        <v>324.22</v>
       </c>
       <c r="C34" t="n">
-        <v>6.3</v>
+        <v>375</v>
       </c>
       <c r="D34" t="n">
-        <v>0.91</v>
+        <v>50.78</v>
       </c>
       <c r="E34" t="n">
-        <v>9</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.05</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35">
@@ -1130,19 +1026,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>6.27</v>
+        <v>346.35</v>
       </c>
       <c r="C35" t="n">
-        <v>6.32</v>
+        <v>376</v>
       </c>
       <c r="D35" t="n">
-        <v>0.04</v>
+        <v>29.65</v>
       </c>
       <c r="E35" t="n">
-        <v>10</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.05</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
@@ -1150,19 +1043,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>6.26</v>
+        <v>354.86</v>
       </c>
       <c r="C36" t="n">
-        <v>6.33</v>
+        <v>377</v>
       </c>
       <c r="D36" t="n">
-        <v>0.07000000000000001</v>
+        <v>22.14</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
@@ -1170,19 +1060,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>6.04</v>
+        <v>450.69</v>
       </c>
       <c r="C37" t="n">
-        <v>6.35</v>
+        <v>451</v>
       </c>
       <c r="D37" t="n">
         <v>0.31</v>
       </c>
       <c r="E37" t="n">
         <v>2</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.14</v>
       </c>
     </row>
     <row r="38">
@@ -1190,19 +1077,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>6.12</v>
+        <v>391.04</v>
       </c>
       <c r="C38" t="n">
-        <v>6.37</v>
+        <v>452</v>
       </c>
       <c r="D38" t="n">
-        <v>0.24</v>
+        <v>60.96</v>
       </c>
       <c r="E38" t="n">
         <v>3</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.06</v>
       </c>
     </row>
     <row r="39">
@@ -1210,19 +1094,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>6.37</v>
+        <v>424.7</v>
       </c>
       <c r="C39" t="n">
-        <v>6.38</v>
+        <v>453</v>
       </c>
       <c r="D39" t="n">
-        <v>0.01</v>
+        <v>28.3</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.11</v>
       </c>
     </row>
     <row r="40">
@@ -1230,19 +1111,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>6.48</v>
+        <v>390.95</v>
       </c>
       <c r="C40" t="n">
-        <v>6.48</v>
+        <v>454</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>63.05</v>
       </c>
       <c r="E40" t="n">
-        <v>10</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.06</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
@@ -1250,19 +1128,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>6.71</v>
+        <v>405.69</v>
       </c>
       <c r="C41" t="n">
-        <v>6.72</v>
+        <v>455</v>
       </c>
       <c r="D41" t="n">
-        <v>0.01</v>
+        <v>49.31</v>
       </c>
       <c r="E41" t="n">
-        <v>4</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42">
@@ -1270,19 +1145,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>7.02</v>
+        <v>405.14</v>
       </c>
       <c r="C42" t="n">
-        <v>7.03</v>
+        <v>456</v>
       </c>
       <c r="D42" t="n">
-        <v>0.01</v>
+        <v>50.86</v>
       </c>
       <c r="E42" t="n">
-        <v>3</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0.08</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
@@ -1290,19 +1162,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>7.03</v>
+        <v>530.91</v>
       </c>
       <c r="C43" t="n">
-        <v>7.05</v>
+        <v>531</v>
       </c>
       <c r="D43" t="n">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="E43" t="n">
-        <v>4</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0.19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -1310,19 +1179,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>7.74</v>
+        <v>513.27</v>
       </c>
       <c r="C44" t="n">
-        <v>7.75</v>
+        <v>532</v>
       </c>
       <c r="D44" t="n">
-        <v>0.01</v>
+        <v>18.73</v>
       </c>
       <c r="E44" t="n">
-        <v>6</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0.12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -1330,19 +1196,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>7.69</v>
+        <v>451.75</v>
       </c>
       <c r="C45" t="n">
-        <v>7.77</v>
+        <v>533</v>
       </c>
       <c r="D45" t="n">
-        <v>0.08</v>
+        <v>81.25</v>
       </c>
       <c r="E45" t="n">
-        <v>7</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0.28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -1350,19 +1213,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>7.97</v>
+        <v>460.29</v>
       </c>
       <c r="C46" t="n">
-        <v>7.98</v>
+        <v>534</v>
       </c>
       <c r="D46" t="n">
-        <v>0.01</v>
+        <v>73.70999999999999</v>
       </c>
       <c r="E46" t="n">
-        <v>10</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0.07000000000000001</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
@@ -1370,19 +1230,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>8.369999999999999</v>
+        <v>504.56</v>
       </c>
       <c r="C47" t="n">
-        <v>8.380000000000001</v>
+        <v>535</v>
       </c>
       <c r="D47" t="n">
-        <v>0.01</v>
+        <v>30.44</v>
       </c>
       <c r="E47" t="n">
-        <v>4</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0.2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48">
@@ -1390,19 +1247,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>7.77</v>
+        <v>467.07</v>
       </c>
       <c r="C48" t="n">
-        <v>8.4</v>
+        <v>536</v>
       </c>
       <c r="D48" t="n">
-        <v>0.63</v>
+        <v>68.93000000000001</v>
       </c>
       <c r="E48" t="n">
-        <v>5</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0.19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
@@ -1410,19 +1264,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
+        <v>506.97</v>
+      </c>
+      <c r="C49" t="n">
+        <v>537</v>
+      </c>
+      <c r="D49" t="n">
+        <v>30.03</v>
+      </c>
+      <c r="E49" t="n">
         <v>8</v>
-      </c>
-      <c r="C49" t="n">
-        <v>8.42</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="E49" t="n">
-        <v>6</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0.13</v>
       </c>
     </row>
     <row r="50">
@@ -1430,19 +1281,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>9.130000000000001</v>
+        <v>545</v>
       </c>
       <c r="C50" t="n">
-        <v>9.130000000000001</v>
+        <v>545</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>9</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0.07000000000000001</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51">
@@ -1450,19 +1298,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>8.220000000000001</v>
+        <v>553.8200000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>9.15</v>
+        <v>554</v>
       </c>
       <c r="D51" t="n">
-        <v>0.93</v>
+        <v>0.18</v>
       </c>
       <c r="E51" t="n">
-        <v>10</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0.09</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52">
@@ -1470,19 +1315,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>8.48</v>
+        <v>526.37</v>
       </c>
       <c r="C52" t="n">
-        <v>9.17</v>
+        <v>555</v>
       </c>
       <c r="D52" t="n">
-        <v>0.6899999999999999</v>
+        <v>28.63</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0.3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53">
@@ -1490,19 +1332,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>9.029999999999999</v>
+        <v>541.5700000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>9.18</v>
+        <v>556</v>
       </c>
       <c r="D53" t="n">
-        <v>0.16</v>
+        <v>14.43</v>
       </c>
       <c r="E53" t="n">
-        <v>2</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0.26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
@@ -1510,19 +1349,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>9.02</v>
+        <v>647.3099999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>9.199999999999999</v>
+        <v>648</v>
       </c>
       <c r="D54" t="n">
-        <v>0.18</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E54" t="n">
-        <v>3</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0.1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55">
@@ -1530,19 +1366,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>9.199999999999999</v>
+        <v>562.14</v>
       </c>
       <c r="C55" t="n">
-        <v>9.220000000000001</v>
+        <v>649</v>
       </c>
       <c r="D55" t="n">
-        <v>0.01</v>
+        <v>86.86</v>
       </c>
       <c r="E55" t="n">
-        <v>4</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0.21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56">
@@ -1550,19 +1383,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>9.09</v>
+        <v>558</v>
       </c>
       <c r="C56" t="n">
-        <v>9.23</v>
+        <v>650</v>
       </c>
       <c r="D56" t="n">
-        <v>0.14</v>
+        <v>92</v>
       </c>
       <c r="E56" t="n">
-        <v>5</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0.24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -1570,19 +1400,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>11.6</v>
+        <v>562.86</v>
       </c>
       <c r="C57" t="n">
-        <v>11.62</v>
+        <v>651</v>
       </c>
       <c r="D57" t="n">
-        <v>0.01</v>
+        <v>88.14</v>
       </c>
       <c r="E57" t="n">
-        <v>8</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0.11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -1590,79 +1417,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>10.61</v>
+        <v>584.89</v>
       </c>
       <c r="C58" t="n">
-        <v>11.63</v>
+        <v>652</v>
       </c>
       <c r="D58" t="n">
-        <v>1.02</v>
+        <v>67.11</v>
       </c>
       <c r="E58" t="n">
-        <v>9</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="n">
-        <v>10.05</v>
-      </c>
-      <c r="C59" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="D59" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="E59" t="n">
-        <v>10</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="C60" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="D60" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="E60" t="n">
-        <v>1</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" t="n">
-        <v>9.949999999999999</v>
-      </c>
-      <c r="C61" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="D61" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="E61" t="n">
-        <v>2</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0.34</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
